--- a/BSTAuto_Python/bst_new/data/get_bst_ryzz_qyzz/bst_ryzz_贺家斌_20200806.xlsx
+++ b/BSTAuto_Python/bst_new/data/get_bst_ryzz_qyzz/bst_ryzz_贺家斌_20200806.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12540" activeTab="1"/>
+    <workbookView windowWidth="20565" windowHeight="11790"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -7326,7 +7326,7 @@
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -7338,12 +7338,19 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -7357,22 +7364,22 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -7386,16 +7393,32 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -7409,24 +7432,32 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -7441,46 +7472,8 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -7495,7 +7488,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -7507,7 +7506,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -7519,7 +7518,97 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -7531,13 +7620,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -7549,7 +7650,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -7561,121 +7668,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -7689,11 +7682,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -7728,6 +7727,33 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -7753,39 +7779,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -7794,10 +7787,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -7806,133 +7799,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -7940,11 +7933,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -8266,15 +8259,16 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:L1318"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M549" sqref="M549"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D500" sqref="D500"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="4" max="4" width="19.625" customWidth="1"/>
-    <col min="6" max="6" width="17.625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="21.75" style="2" customWidth="1"/>
     <col min="7" max="7" width="15" customWidth="1"/>
+    <col min="8" max="8" width="13.125" customWidth="1"/>
     <col min="11" max="11" width="36.375" customWidth="1"/>
   </cols>
   <sheetData>
@@ -54595,7 +54589,6 @@
       </c>
     </row>
   </sheetData>
-  <sheetCalcPr fullCalcOnLoad="1"/>
   <autoFilter ref="D1:D1318">
     <filterColumn colId="0">
       <filters>
@@ -54616,8 +54609,8 @@
   <sheetPr/>
   <dimension ref="B1:E548"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A481" workbookViewId="0">
-      <selection activeCell="E498" sqref="E498"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
